--- a/biology/Histoire de la zoologie et de la botanique/Tilly_Edinger/Tilly_Edinger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tilly_Edinger/Tilly_Edinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilly Edinger de son vrai nom Johanna Gabriele Ottilie Edinger, née le 13 novembre 1897 à Francfort, morte le 27 mai 1967 à Cambridge (États-Unis) est une paléontologue américaine d'origine juive allemande. Elle a fondé la paléoneurologie (ou neuropaléontologie), discipline consacrée à l'étude des cerveaux fossiles.
 Stephen Jay Gould l'a décrite comme « l'une des scientifiques les plus remarquables du XXe siècle ».
-Le cratère vénusien Edinger a été nommé en son honneur[1].
+Le cratère vénusien Edinger a été nommé en son honneur.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fossil Brains (Les cerveaux fossiles), 1929[2].
-Horse Brains (Les cerveaux des chevaux), 1948[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fossil Brains (Les cerveaux fossiles), 1929.
+Horse Brains (Les cerveaux des chevaux), 1948.</t>
         </is>
       </c>
     </row>
